--- a/Data/ROY Data/rookies_93_94.xlsx
+++ b/Data/ROY Data/rookies_93_94.xlsx
@@ -1031,76 +1031,76 @@
         <v>22</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>791</v>
+        <v>82</v>
       </c>
       <c r="H3">
-        <v>25737</v>
+        <v>2560</v>
       </c>
       <c r="I3">
-        <v>4692</v>
+        <v>435</v>
       </c>
       <c r="J3">
-        <v>9675</v>
+        <v>869</v>
       </c>
       <c r="K3">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>2416</v>
+        <v>234</v>
       </c>
       <c r="N3">
-        <v>3787</v>
+        <v>411</v>
       </c>
       <c r="O3">
-        <v>2263</v>
+        <v>277</v>
       </c>
       <c r="P3">
-        <v>5867</v>
+        <v>621</v>
       </c>
       <c r="Q3">
-        <v>1509</v>
+        <v>163</v>
       </c>
       <c r="R3">
-        <v>582</v>
+        <v>60</v>
       </c>
       <c r="S3">
-        <v>798</v>
+        <v>114</v>
       </c>
       <c r="T3">
-        <v>1756</v>
+        <v>162</v>
       </c>
       <c r="U3">
-        <v>2560</v>
+        <v>231</v>
       </c>
       <c r="V3">
-        <v>11839</v>
+        <v>1105</v>
       </c>
       <c r="W3">
-        <v>0.485</v>
+        <v>0.501</v>
       </c>
       <c r="X3">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="Y3">
-        <v>0.638</v>
+        <v>0.569</v>
       </c>
       <c r="Z3">
-        <v>32.5</v>
+        <v>31.2</v>
       </c>
       <c r="AA3">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AB3">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="s">
         <v>152</v>
@@ -1123,76 +1123,73 @@
         <v>25</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>644</v>
+        <v>67</v>
       </c>
       <c r="H4">
-        <v>9925</v>
+        <v>690</v>
       </c>
       <c r="I4">
-        <v>959</v>
+        <v>76</v>
       </c>
       <c r="J4">
-        <v>2038</v>
+        <v>174</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>46</v>
+      </c>
+      <c r="N4">
+        <v>75</v>
+      </c>
+      <c r="O4">
+        <v>76</v>
+      </c>
+      <c r="P4">
+        <v>194</v>
+      </c>
+      <c r="Q4">
+        <v>56</v>
+      </c>
+      <c r="R4">
+        <v>19</v>
+      </c>
+      <c r="S4">
+        <v>33</v>
+      </c>
+      <c r="T4">
+        <v>52</v>
+      </c>
+      <c r="U4">
+        <v>93</v>
+      </c>
+      <c r="V4">
+        <v>198</v>
+      </c>
+      <c r="W4">
+        <v>0.437</v>
+      </c>
+      <c r="Y4">
+        <v>0.613</v>
+      </c>
+      <c r="Z4">
+        <v>10.3</v>
+      </c>
+      <c r="AA4">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>26</v>
-      </c>
-      <c r="M4">
-        <v>366</v>
-      </c>
-      <c r="N4">
-        <v>624</v>
-      </c>
-      <c r="O4">
-        <v>1085</v>
-      </c>
-      <c r="P4">
-        <v>2690</v>
-      </c>
-      <c r="Q4">
-        <v>460</v>
-      </c>
-      <c r="R4">
-        <v>328</v>
-      </c>
-      <c r="S4">
-        <v>266</v>
-      </c>
-      <c r="T4">
-        <v>519</v>
-      </c>
-      <c r="U4">
-        <v>1375</v>
-      </c>
-      <c r="V4">
-        <v>2287</v>
-      </c>
-      <c r="W4">
-        <v>0.471</v>
-      </c>
-      <c r="X4">
-        <v>0.115</v>
-      </c>
-      <c r="Y4">
-        <v>0.587</v>
-      </c>
-      <c r="Z4">
-        <v>15.4</v>
-      </c>
-      <c r="AA4">
-        <v>3.6</v>
-      </c>
       <c r="AB4">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="AC4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD4" t="s">
         <v>152</v>
@@ -1215,76 +1212,76 @@
         <v>21</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>832</v>
+        <v>49</v>
       </c>
       <c r="H5">
-        <v>19531</v>
+        <v>1385</v>
       </c>
       <c r="I5">
-        <v>2713</v>
+        <v>201</v>
       </c>
       <c r="J5">
-        <v>5935</v>
+        <v>491</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>1322</v>
+        <v>102</v>
       </c>
       <c r="N5">
-        <v>1847</v>
+        <v>168</v>
       </c>
       <c r="O5">
-        <v>1743</v>
+        <v>98</v>
       </c>
       <c r="P5">
-        <v>5268</v>
+        <v>306</v>
       </c>
       <c r="Q5">
-        <v>573</v>
+        <v>98</v>
       </c>
       <c r="R5">
-        <v>532</v>
+        <v>45</v>
       </c>
       <c r="S5">
-        <v>2119</v>
+        <v>147</v>
       </c>
       <c r="T5">
-        <v>1059</v>
+        <v>148</v>
       </c>
       <c r="U5">
-        <v>2567</v>
+        <v>170</v>
       </c>
       <c r="V5">
-        <v>6752</v>
+        <v>504</v>
       </c>
       <c r="W5">
-        <v>0.457</v>
+        <v>0.409</v>
       </c>
       <c r="X5">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.716</v>
+        <v>0.607</v>
       </c>
       <c r="Z5">
-        <v>23.5</v>
+        <v>28.3</v>
       </c>
       <c r="AA5">
-        <v>8.1</v>
+        <v>10.3</v>
       </c>
       <c r="AB5">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AC5">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="AD5" t="s">
         <v>152</v>
@@ -1307,76 +1304,76 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1089</v>
+        <v>79</v>
       </c>
       <c r="H6">
-        <v>33823</v>
+        <v>1950</v>
       </c>
       <c r="I6">
-        <v>3852</v>
+        <v>167</v>
       </c>
       <c r="J6">
-        <v>8365</v>
+        <v>402</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>2158</v>
+        <v>115</v>
       </c>
       <c r="N6">
-        <v>2718</v>
+        <v>152</v>
       </c>
       <c r="O6">
-        <v>3002</v>
+        <v>188</v>
       </c>
       <c r="P6">
-        <v>8409</v>
+        <v>493</v>
       </c>
       <c r="Q6">
-        <v>1661</v>
+        <v>93</v>
       </c>
       <c r="R6">
-        <v>912</v>
+        <v>71</v>
       </c>
       <c r="S6">
-        <v>1116</v>
+        <v>93</v>
       </c>
       <c r="T6">
-        <v>1342</v>
+        <v>72</v>
       </c>
       <c r="U6">
-        <v>3218</v>
+        <v>177</v>
       </c>
       <c r="V6">
-        <v>9870</v>
+        <v>450</v>
       </c>
       <c r="W6">
-        <v>0.46</v>
+        <v>0.415</v>
       </c>
       <c r="X6">
-        <v>0.136</v>
+        <v>0.167</v>
       </c>
       <c r="Y6">
-        <v>0.794</v>
+        <v>0.757</v>
       </c>
       <c r="Z6">
-        <v>31.1</v>
+        <v>24.7</v>
       </c>
       <c r="AA6">
-        <v>9.1</v>
+        <v>5.7</v>
       </c>
       <c r="AB6">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="AC6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AD6" t="s">
         <v>152</v>
@@ -1488,76 +1485,76 @@
         <v>23</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>383</v>
+        <v>51</v>
       </c>
       <c r="H8">
-        <v>7592</v>
+        <v>767</v>
       </c>
       <c r="I8">
-        <v>971</v>
+        <v>98</v>
       </c>
       <c r="J8">
-        <v>2321</v>
+        <v>234</v>
       </c>
       <c r="K8">
-        <v>339</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>909</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>366</v>
+        <v>46</v>
       </c>
       <c r="N8">
-        <v>506</v>
+        <v>70</v>
       </c>
       <c r="O8">
-        <v>395</v>
+        <v>46</v>
       </c>
       <c r="P8">
-        <v>1332</v>
+        <v>132</v>
       </c>
       <c r="Q8">
-        <v>527</v>
+        <v>62</v>
       </c>
       <c r="R8">
-        <v>341</v>
+        <v>37</v>
       </c>
       <c r="S8">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="T8">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="U8">
-        <v>865</v>
+        <v>88</v>
       </c>
       <c r="V8">
-        <v>2647</v>
+        <v>244</v>
       </c>
       <c r="W8">
-        <v>0.418</v>
+        <v>0.419</v>
       </c>
       <c r="X8">
-        <v>0.373</v>
+        <v>0.333</v>
       </c>
       <c r="Y8">
-        <v>0.723</v>
+        <v>0.657</v>
       </c>
       <c r="Z8">
-        <v>19.8</v>
+        <v>15</v>
       </c>
       <c r="AA8">
-        <v>6.9</v>
+        <v>4.8</v>
       </c>
       <c r="AB8">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="AC8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD8" t="s">
         <v>152</v>
@@ -1580,76 +1577,76 @@
         <v>23</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>362</v>
+        <v>75</v>
       </c>
       <c r="H9">
-        <v>5464</v>
+        <v>1321</v>
       </c>
       <c r="I9">
-        <v>707</v>
+        <v>207</v>
       </c>
       <c r="J9">
-        <v>1613</v>
+        <v>418</v>
       </c>
       <c r="K9">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>359</v>
+        <v>104</v>
       </c>
       <c r="N9">
-        <v>576</v>
+        <v>180</v>
       </c>
       <c r="O9">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="P9">
-        <v>717</v>
+        <v>225</v>
       </c>
       <c r="Q9">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="R9">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="S9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="T9">
-        <v>353</v>
+        <v>87</v>
       </c>
       <c r="U9">
-        <v>576</v>
+        <v>131</v>
       </c>
       <c r="V9">
-        <v>1868</v>
+        <v>518</v>
       </c>
       <c r="W9">
-        <v>0.438</v>
+        <v>0.495</v>
       </c>
       <c r="X9">
-        <v>0.304</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.623</v>
+        <v>0.578</v>
       </c>
       <c r="Z9">
-        <v>15.1</v>
+        <v>17.6</v>
       </c>
       <c r="AA9">
-        <v>5.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="s">
         <v>152</v>
@@ -1672,76 +1669,76 @@
         <v>24</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>993</v>
+        <v>66</v>
       </c>
       <c r="H10">
-        <v>29812</v>
+        <v>1122</v>
       </c>
       <c r="I10">
-        <v>5698</v>
+        <v>162</v>
       </c>
       <c r="J10">
-        <v>12558</v>
+        <v>388</v>
       </c>
       <c r="K10">
-        <v>672</v>
+        <v>26</v>
       </c>
       <c r="L10">
-        <v>2029</v>
+        <v>88</v>
       </c>
       <c r="M10">
-        <v>3567</v>
+        <v>90</v>
       </c>
       <c r="N10">
-        <v>4144</v>
+        <v>107</v>
       </c>
       <c r="O10">
-        <v>618</v>
+        <v>25</v>
       </c>
       <c r="P10">
-        <v>3221</v>
+        <v>134</v>
       </c>
       <c r="Q10">
-        <v>5939</v>
+        <v>192</v>
       </c>
       <c r="R10">
-        <v>1058</v>
+        <v>59</v>
       </c>
       <c r="S10">
-        <v>163</v>
+        <v>7</v>
       </c>
       <c r="T10">
-        <v>2418</v>
+        <v>94</v>
       </c>
       <c r="U10">
-        <v>2744</v>
+        <v>136</v>
       </c>
       <c r="V10">
-        <v>15635</v>
+        <v>440</v>
       </c>
       <c r="W10">
-        <v>0.454</v>
+        <v>0.418</v>
       </c>
       <c r="X10">
-        <v>0.331</v>
+        <v>0.295</v>
       </c>
       <c r="Y10">
-        <v>0.861</v>
+        <v>0.841</v>
       </c>
       <c r="Z10">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AA10">
-        <v>15.7</v>
+        <v>6.7</v>
       </c>
       <c r="AB10">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="AC10">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="AD10" t="s">
         <v>152</v>
@@ -1764,76 +1761,76 @@
         <v>22</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>825</v>
+        <v>65</v>
       </c>
       <c r="H11">
-        <v>22007</v>
+        <v>1604</v>
       </c>
       <c r="I11">
-        <v>3366</v>
+        <v>327</v>
       </c>
       <c r="J11">
-        <v>7227</v>
+        <v>696</v>
       </c>
       <c r="K11">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>684</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>890</v>
+        <v>124</v>
       </c>
       <c r="N11">
-        <v>1288</v>
+        <v>161</v>
       </c>
       <c r="O11">
-        <v>732</v>
+        <v>88</v>
       </c>
       <c r="P11">
-        <v>2610</v>
+        <v>190</v>
       </c>
       <c r="Q11">
-        <v>1398</v>
+        <v>126</v>
       </c>
       <c r="R11">
-        <v>659</v>
+        <v>63</v>
       </c>
       <c r="S11">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="T11">
-        <v>994</v>
+        <v>108</v>
       </c>
       <c r="U11">
-        <v>2074</v>
+        <v>148</v>
       </c>
       <c r="V11">
-        <v>7826</v>
+        <v>779</v>
       </c>
       <c r="W11">
-        <v>0.466</v>
+        <v>0.47</v>
       </c>
       <c r="X11">
-        <v>0.298</v>
+        <v>0.043</v>
       </c>
       <c r="Y11">
-        <v>0.6909999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="Z11">
-        <v>26.7</v>
+        <v>24.7</v>
       </c>
       <c r="AA11">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AB11">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AC11">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD11" t="s">
         <v>152</v>
@@ -1856,76 +1853,76 @@
         <v>25</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>667</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>13208</v>
+        <v>43</v>
       </c>
       <c r="I12">
-        <v>1094</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>2448</v>
+        <v>14</v>
       </c>
       <c r="K12">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>719</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>872</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1045</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>804</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>333</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>1523</v>
+        <v>6</v>
       </c>
       <c r="V12">
-        <v>2986</v>
+        <v>9</v>
       </c>
       <c r="W12">
-        <v>0.447</v>
+        <v>0.214</v>
       </c>
       <c r="X12">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="Z12">
-        <v>19.8</v>
+        <v>4.3</v>
       </c>
       <c r="AA12">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="AB12">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="AC12">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD12" t="s">
         <v>152</v>
@@ -1948,76 +1945,76 @@
         <v>25</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>903</v>
+        <v>81</v>
       </c>
       <c r="H13">
-        <v>26084</v>
+        <v>1732</v>
       </c>
       <c r="I13">
-        <v>3187</v>
+        <v>216</v>
       </c>
       <c r="J13">
-        <v>7120</v>
+        <v>425</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2665</v>
+        <v>194</v>
       </c>
       <c r="N13">
-        <v>3668</v>
+        <v>302</v>
       </c>
       <c r="O13">
-        <v>2323</v>
+        <v>190</v>
       </c>
       <c r="P13">
-        <v>6755</v>
+        <v>505</v>
       </c>
       <c r="Q13">
-        <v>1017</v>
+        <v>55</v>
       </c>
       <c r="R13">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="S13">
-        <v>889</v>
+        <v>84</v>
       </c>
       <c r="T13">
-        <v>1346</v>
+        <v>107</v>
       </c>
       <c r="U13">
-        <v>2551</v>
+        <v>189</v>
       </c>
       <c r="V13">
-        <v>9041</v>
+        <v>626</v>
       </c>
       <c r="W13">
-        <v>0.448</v>
+        <v>0.508</v>
       </c>
       <c r="X13">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>0.727</v>
+        <v>0.642</v>
       </c>
       <c r="Z13">
-        <v>28.9</v>
+        <v>21.4</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="AB13">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="AC13">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD13" t="s">
         <v>152</v>
@@ -2132,76 +2129,76 @@
         <v>22</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>402</v>
+        <v>64</v>
       </c>
       <c r="H15">
-        <v>7305</v>
+        <v>759</v>
       </c>
       <c r="I15">
-        <v>1082</v>
+        <v>129</v>
       </c>
       <c r="J15">
-        <v>2632</v>
+        <v>342</v>
       </c>
       <c r="K15">
-        <v>328</v>
+        <v>23</v>
       </c>
       <c r="L15">
-        <v>867</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>743</v>
+        <v>61</v>
       </c>
       <c r="N15">
-        <v>954</v>
+        <v>81</v>
       </c>
       <c r="O15">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="P15">
-        <v>588</v>
+        <v>68</v>
       </c>
       <c r="Q15">
-        <v>1034</v>
+        <v>78</v>
       </c>
       <c r="R15">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="S15">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>617</v>
+        <v>61</v>
       </c>
       <c r="U15">
-        <v>830</v>
+        <v>69</v>
       </c>
       <c r="V15">
-        <v>3235</v>
+        <v>342</v>
       </c>
       <c r="W15">
-        <v>0.411</v>
+        <v>0.377</v>
       </c>
       <c r="X15">
-        <v>0.378</v>
+        <v>0.404</v>
       </c>
       <c r="Y15">
-        <v>0.779</v>
+        <v>0.753</v>
       </c>
       <c r="Z15">
-        <v>18.2</v>
+        <v>11.9</v>
       </c>
       <c r="AA15">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="AB15">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AC15">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD15" t="s">
         <v>152</v>
@@ -2224,73 +2221,70 @@
         <v>23</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="I16">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
         <v>2</v>
       </c>
-      <c r="P16">
-        <v>9</v>
-      </c>
-      <c r="Q16">
-        <v>9</v>
-      </c>
-      <c r="R16">
-        <v>6</v>
-      </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="W16">
-        <v>0.5</v>
-      </c>
-      <c r="X16">
         <v>0.333</v>
       </c>
       <c r="Y16">
-        <v>0.762</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AA16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>0.5</v>
@@ -2316,76 +2310,76 @@
         <v>23</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="H17">
-        <v>2512</v>
+        <v>1149</v>
       </c>
       <c r="I17">
-        <v>361</v>
+        <v>151</v>
       </c>
       <c r="J17">
-        <v>896</v>
+        <v>372</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="N17">
-        <v>387</v>
+        <v>160</v>
       </c>
       <c r="O17">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="P17">
-        <v>517</v>
+        <v>247</v>
       </c>
       <c r="Q17">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="R17">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="S17">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="T17">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="U17">
-        <v>351</v>
+        <v>178</v>
       </c>
       <c r="V17">
-        <v>980</v>
+        <v>410</v>
       </c>
       <c r="W17">
-        <v>0.403</v>
+        <v>0.406</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0.667</v>
+        <v>0.675</v>
       </c>
       <c r="Z17">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AA17">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AB17">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC17">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" t="s">
         <v>152</v>
@@ -2500,76 +2494,76 @@
         <v>23</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H19">
-        <v>838</v>
+        <v>107</v>
       </c>
       <c r="I19">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9</v>
+      </c>
+      <c r="N19">
+        <v>16</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="P19">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>8</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
         <v>6</v>
       </c>
-      <c r="M19">
-        <v>61</v>
-      </c>
-      <c r="N19">
-        <v>86</v>
-      </c>
-      <c r="O19">
-        <v>61</v>
-      </c>
-      <c r="P19">
-        <v>153</v>
-      </c>
-      <c r="Q19">
-        <v>60</v>
-      </c>
-      <c r="R19">
-        <v>17</v>
-      </c>
-      <c r="S19">
-        <v>27</v>
-      </c>
-      <c r="T19">
-        <v>57</v>
-      </c>
       <c r="U19">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="V19">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="W19">
-        <v>0.378</v>
+        <v>0.347</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.709</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="Z19">
-        <v>9.9</v>
+        <v>6.7</v>
       </c>
       <c r="AA19">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AB19">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AC19">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD19" t="s">
         <v>152</v>
@@ -2592,73 +2586,73 @@
         <v>23</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="H20">
-        <v>1923</v>
+        <v>923</v>
       </c>
       <c r="I20">
-        <v>312</v>
+        <v>159</v>
       </c>
       <c r="J20">
-        <v>592</v>
+        <v>292</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="N20">
-        <v>329</v>
+        <v>149</v>
       </c>
       <c r="O20">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="P20">
-        <v>291</v>
+        <v>153</v>
       </c>
       <c r="Q20">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="R20">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="S20">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="U20">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c r="V20">
-        <v>840</v>
+        <v>424</v>
       </c>
       <c r="W20">
-        <v>0.527</v>
+        <v>0.545</v>
       </c>
       <c r="X20">
-        <v>0.048</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.653</v>
+        <v>0.711</v>
       </c>
       <c r="Z20">
-        <v>13.3</v>
+        <v>18.8</v>
       </c>
       <c r="AA20">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB20">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="AC20">
         <v>0.6</v>
@@ -2684,76 +2678,76 @@
         <v>22</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>2</v>
       </c>
-      <c r="G21">
-        <v>11</v>
-      </c>
-      <c r="H21">
-        <v>114</v>
-      </c>
-      <c r="I21">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>16</v>
       </c>
-      <c r="J21">
-        <v>52</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>10</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>4</v>
-      </c>
-      <c r="O21">
-        <v>8</v>
-      </c>
-      <c r="P21">
-        <v>20</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>9</v>
-      </c>
-      <c r="U21">
-        <v>7</v>
-      </c>
-      <c r="V21">
-        <v>35</v>
-      </c>
       <c r="W21">
-        <v>0.308</v>
+        <v>0.538</v>
       </c>
       <c r="X21">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>0.5</v>
       </c>
       <c r="Z21">
-        <v>10.4</v>
+        <v>2.7</v>
       </c>
       <c r="AA21">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AB21">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD21" t="s">
         <v>152</v>
@@ -2862,25 +2856,25 @@
         <v>28</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="I23">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J23">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="K23">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M23">
         <v>2</v>
@@ -2889,49 +2883,49 @@
         <v>2</v>
       </c>
       <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="P23">
-        <v>12</v>
-      </c>
-      <c r="Q23">
-        <v>11</v>
-      </c>
-      <c r="R23">
-        <v>4</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>7</v>
-      </c>
       <c r="U23">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="V23">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="W23">
-        <v>0.381</v>
+        <v>0.471</v>
       </c>
       <c r="X23">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="Y23">
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>4.9</v>
+        <v>10</v>
       </c>
       <c r="AA23">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC23">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD23" t="s">
         <v>152</v>
@@ -3043,76 +3037,76 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>207</v>
+        <v>70</v>
       </c>
       <c r="H25">
-        <v>2530</v>
+        <v>889</v>
       </c>
       <c r="I25">
-        <v>331</v>
+        <v>122</v>
       </c>
       <c r="J25">
-        <v>813</v>
+        <v>305</v>
       </c>
       <c r="K25">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="N25">
-        <v>293</v>
+        <v>110</v>
       </c>
       <c r="O25">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="P25">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="Q25">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="R25">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="S25">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T25">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="U25">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="V25">
-        <v>938</v>
+        <v>338</v>
       </c>
       <c r="W25">
-        <v>0.407</v>
+        <v>0.4</v>
       </c>
       <c r="X25">
-        <v>0.29</v>
+        <v>0.08</v>
       </c>
       <c r="Y25">
-        <v>0.775</v>
+        <v>0.836</v>
       </c>
       <c r="Z25">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="AA25">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AB25">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD25" t="s">
         <v>152</v>
@@ -3227,76 +3221,73 @@
         <v>25</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
+        <v>16</v>
+      </c>
+      <c r="Q27">
         <v>2</v>
       </c>
-      <c r="G27">
-        <v>22</v>
-      </c>
-      <c r="H27">
-        <v>200</v>
-      </c>
-      <c r="I27">
-        <v>22</v>
-      </c>
-      <c r="J27">
-        <v>67</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>16</v>
-      </c>
-      <c r="N27">
-        <v>25</v>
-      </c>
-      <c r="O27">
-        <v>26</v>
-      </c>
-      <c r="P27">
-        <v>61</v>
-      </c>
-      <c r="Q27">
-        <v>12</v>
-      </c>
       <c r="R27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="U27">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="V27">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="W27">
-        <v>0.328</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y27">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="Z27">
-        <v>9.1</v>
+        <v>6.6</v>
       </c>
       <c r="AA27">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="AB27">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AC27">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD27" t="s">
         <v>152</v>
@@ -3319,19 +3310,19 @@
         <v>24</v>
       </c>
       <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>3</v>
       </c>
-      <c r="G28">
-        <v>8</v>
-      </c>
-      <c r="H28">
-        <v>27</v>
-      </c>
       <c r="I28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -3340,52 +3331,49 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>0.333</v>
+      </c>
+      <c r="Z28">
         <v>3</v>
       </c>
-      <c r="P28">
-        <v>7</v>
-      </c>
-      <c r="Q28">
+      <c r="AA28">
         <v>2</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>4</v>
-      </c>
-      <c r="V28">
-        <v>14</v>
-      </c>
-      <c r="W28">
-        <v>0.4</v>
-      </c>
-      <c r="Y28">
-        <v>0.667</v>
-      </c>
-      <c r="Z28">
-        <v>3.4</v>
-      </c>
-      <c r="AA28">
-        <v>1.8</v>
-      </c>
       <c r="AB28">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="s">
         <v>152</v>
@@ -3408,76 +3396,76 @@
         <v>22</v>
       </c>
       <c r="F29">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>704</v>
+        <v>82</v>
       </c>
       <c r="H29">
-        <v>23711</v>
+        <v>3015</v>
       </c>
       <c r="I29">
-        <v>3995</v>
+        <v>509</v>
       </c>
       <c r="J29">
-        <v>8731</v>
+        <v>1092</v>
       </c>
       <c r="K29">
-        <v>503</v>
+        <v>50</v>
       </c>
       <c r="L29">
-        <v>1591</v>
+        <v>187</v>
       </c>
       <c r="M29">
-        <v>2191</v>
+        <v>245</v>
       </c>
       <c r="N29">
-        <v>2831</v>
+        <v>330</v>
       </c>
       <c r="O29">
-        <v>975</v>
+        <v>192</v>
       </c>
       <c r="P29">
-        <v>3146</v>
+        <v>439</v>
       </c>
       <c r="Q29">
-        <v>3525</v>
+        <v>544</v>
       </c>
       <c r="R29">
-        <v>1125</v>
+        <v>190</v>
       </c>
       <c r="S29">
-        <v>312</v>
+        <v>51</v>
       </c>
       <c r="T29">
-        <v>1786</v>
+        <v>292</v>
       </c>
       <c r="U29">
-        <v>1562</v>
+        <v>205</v>
       </c>
       <c r="V29">
-        <v>10684</v>
+        <v>1313</v>
       </c>
       <c r="W29">
-        <v>0.458</v>
+        <v>0.466</v>
       </c>
       <c r="X29">
-        <v>0.316</v>
+        <v>0.267</v>
       </c>
       <c r="Y29">
-        <v>0.774</v>
+        <v>0.742</v>
       </c>
       <c r="Z29">
-        <v>33.7</v>
+        <v>36.8</v>
       </c>
       <c r="AA29">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="AB29">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="AC29">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="AD29" t="s">
         <v>152</v>
@@ -3500,73 +3488,73 @@
         <v>23</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>800</v>
+        <v>77</v>
       </c>
       <c r="H30">
-        <v>15701</v>
+        <v>1165</v>
       </c>
       <c r="I30">
-        <v>2194</v>
+        <v>162</v>
       </c>
       <c r="J30">
-        <v>5151</v>
+        <v>385</v>
       </c>
       <c r="K30">
-        <v>402</v>
+        <v>7</v>
       </c>
       <c r="L30">
-        <v>1155</v>
+        <v>33</v>
       </c>
       <c r="M30">
-        <v>994</v>
+        <v>87</v>
       </c>
       <c r="N30">
-        <v>1258</v>
+        <v>119</v>
       </c>
       <c r="O30">
-        <v>554</v>
+        <v>45</v>
       </c>
       <c r="P30">
-        <v>1864</v>
+        <v>157</v>
       </c>
       <c r="Q30">
-        <v>1130</v>
+        <v>106</v>
       </c>
       <c r="R30">
-        <v>556</v>
+        <v>49</v>
       </c>
       <c r="S30">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="T30">
-        <v>594</v>
+        <v>78</v>
       </c>
       <c r="U30">
-        <v>1013</v>
+        <v>117</v>
       </c>
       <c r="V30">
-        <v>5784</v>
+        <v>418</v>
       </c>
       <c r="W30">
-        <v>0.426</v>
+        <v>0.421</v>
       </c>
       <c r="X30">
-        <v>0.348</v>
+        <v>0.212</v>
       </c>
       <c r="Y30">
-        <v>0.79</v>
+        <v>0.731</v>
       </c>
       <c r="Z30">
-        <v>19.6</v>
+        <v>15.1</v>
       </c>
       <c r="AA30">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="AB30">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AC30">
         <v>1.4</v>
@@ -3592,76 +3580,73 @@
         <v>23</v>
       </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>27</v>
+      </c>
+      <c r="H31">
+        <v>247</v>
+      </c>
+      <c r="I31">
+        <v>29</v>
+      </c>
+      <c r="J31">
+        <v>79</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>12</v>
+      </c>
+      <c r="N31">
+        <v>26</v>
+      </c>
+      <c r="O31">
+        <v>26</v>
+      </c>
+      <c r="P31">
+        <v>59</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
         <v>8</v>
       </c>
-      <c r="G31">
-        <v>187</v>
-      </c>
-      <c r="H31">
-        <v>1954</v>
-      </c>
-      <c r="I31">
-        <v>230</v>
-      </c>
-      <c r="J31">
-        <v>565</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-      <c r="M31">
-        <v>92</v>
-      </c>
-      <c r="N31">
-        <v>180</v>
-      </c>
-      <c r="O31">
-        <v>155</v>
-      </c>
-      <c r="P31">
-        <v>433</v>
-      </c>
-      <c r="Q31">
-        <v>58</v>
-      </c>
-      <c r="R31">
-        <v>54</v>
-      </c>
       <c r="S31">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="T31">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="U31">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="V31">
-        <v>553</v>
+        <v>70</v>
       </c>
       <c r="W31">
-        <v>0.407</v>
-      </c>
-      <c r="X31">
-        <v>0.333</v>
+        <v>0.367</v>
       </c>
       <c r="Y31">
-        <v>0.511</v>
+        <v>0.462</v>
       </c>
       <c r="Z31">
-        <v>10.4</v>
+        <v>9.1</v>
       </c>
       <c r="AA31">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AB31">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AC31">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD31" t="s">
         <v>152</v>
@@ -3865,76 +3850,76 @@
         <v>22</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>839</v>
+        <v>79</v>
       </c>
       <c r="H34">
-        <v>28311</v>
+        <v>1519</v>
       </c>
       <c r="I34">
-        <v>5337</v>
+        <v>272</v>
       </c>
       <c r="J34">
-        <v>12017</v>
+        <v>671</v>
       </c>
       <c r="K34">
-        <v>1305</v>
+        <v>35</v>
       </c>
       <c r="L34">
-        <v>3247</v>
+        <v>117</v>
       </c>
       <c r="M34">
-        <v>2572</v>
+        <v>89</v>
       </c>
       <c r="N34">
-        <v>2979</v>
+        <v>108</v>
       </c>
       <c r="O34">
-        <v>353</v>
+        <v>19</v>
       </c>
       <c r="P34">
-        <v>2434</v>
+        <v>120</v>
       </c>
       <c r="Q34">
-        <v>1990</v>
+        <v>100</v>
       </c>
       <c r="R34">
-        <v>566</v>
+        <v>34</v>
       </c>
       <c r="S34">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="T34">
-        <v>1760</v>
+        <v>99</v>
       </c>
       <c r="U34">
-        <v>2062</v>
+        <v>165</v>
       </c>
       <c r="V34">
-        <v>14551</v>
+        <v>668</v>
       </c>
       <c r="W34">
-        <v>0.444</v>
+        <v>0.405</v>
       </c>
       <c r="X34">
-        <v>0.402</v>
+        <v>0.299</v>
       </c>
       <c r="Y34">
-        <v>0.863</v>
+        <v>0.824</v>
       </c>
       <c r="Z34">
-        <v>33.7</v>
+        <v>19.2</v>
       </c>
       <c r="AA34">
-        <v>17.3</v>
+        <v>8.5</v>
       </c>
       <c r="AB34">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="AC34">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD34" t="s">
         <v>152</v>
@@ -3957,76 +3942,76 @@
         <v>23</v>
       </c>
       <c r="F35">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>937</v>
+        <v>82</v>
       </c>
       <c r="H35">
-        <v>23253</v>
+        <v>2172</v>
       </c>
       <c r="I35">
-        <v>2970</v>
+        <v>335</v>
       </c>
       <c r="J35">
-        <v>7663</v>
+        <v>893</v>
       </c>
       <c r="K35">
-        <v>1075</v>
+        <v>69</v>
       </c>
       <c r="L35">
-        <v>2984</v>
+        <v>207</v>
       </c>
       <c r="M35">
-        <v>941</v>
+        <v>104</v>
       </c>
       <c r="N35">
-        <v>1261</v>
+        <v>142</v>
       </c>
       <c r="O35">
-        <v>438</v>
+        <v>47</v>
       </c>
       <c r="P35">
-        <v>2021</v>
+        <v>189</v>
       </c>
       <c r="Q35">
-        <v>2506</v>
+        <v>390</v>
       </c>
       <c r="R35">
-        <v>1120</v>
+        <v>121</v>
       </c>
       <c r="S35">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="T35">
-        <v>1159</v>
+        <v>184</v>
       </c>
       <c r="U35">
-        <v>1857</v>
+        <v>174</v>
       </c>
       <c r="V35">
-        <v>7956</v>
+        <v>843</v>
       </c>
       <c r="W35">
-        <v>0.388</v>
+        <v>0.375</v>
       </c>
       <c r="X35">
-        <v>0.36</v>
+        <v>0.333</v>
       </c>
       <c r="Y35">
-        <v>0.746</v>
+        <v>0.732</v>
       </c>
       <c r="Z35">
-        <v>24.8</v>
+        <v>26.5</v>
       </c>
       <c r="AA35">
-        <v>8.5</v>
+        <v>10.3</v>
       </c>
       <c r="AB35">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AC35">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD35" t="s">
         <v>152</v>
@@ -4049,76 +4034,76 @@
         <v>22</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="H36">
-        <v>4170</v>
+        <v>499</v>
       </c>
       <c r="I36">
-        <v>361</v>
+        <v>54</v>
       </c>
       <c r="J36">
-        <v>1023</v>
+        <v>146</v>
       </c>
       <c r="K36">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="N36">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="O36">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="P36">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="Q36">
-        <v>880</v>
+        <v>115</v>
       </c>
       <c r="R36">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="S36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>385</v>
+        <v>48</v>
       </c>
       <c r="U36">
-        <v>360</v>
+        <v>28</v>
       </c>
       <c r="V36">
-        <v>1032</v>
+        <v>134</v>
       </c>
       <c r="W36">
-        <v>0.353</v>
+        <v>0.37</v>
       </c>
       <c r="X36">
-        <v>0.272</v>
+        <v>0.125</v>
       </c>
       <c r="Y36">
-        <v>0.769</v>
+        <v>0.8</v>
       </c>
       <c r="Z36">
-        <v>15.5</v>
+        <v>26.3</v>
       </c>
       <c r="AA36">
-        <v>3.8</v>
+        <v>7.1</v>
       </c>
       <c r="AB36">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="AC36">
-        <v>3.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD36" t="s">
         <v>152</v>
@@ -4233,25 +4218,25 @@
         <v>24</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J38">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -4260,13 +4245,13 @@
         <v>2</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -4278,31 +4263,31 @@
         <v>5</v>
       </c>
       <c r="U38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V38">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="W38">
-        <v>0.469</v>
+        <v>0.5</v>
       </c>
       <c r="X38">
-        <v>0.429</v>
+        <v>0.364</v>
       </c>
       <c r="Y38">
         <v>0.5</v>
       </c>
       <c r="Z38">
-        <v>14.7</v>
+        <v>26</v>
       </c>
       <c r="AA38">
-        <v>6.2</v>
+        <v>10.3</v>
       </c>
       <c r="AB38">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="AC38">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="AD38" t="s">
         <v>152</v>
@@ -4325,76 +4310,73 @@
         <v>26</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>845</v>
+        <v>45</v>
       </c>
       <c r="H39">
-        <v>16989</v>
+        <v>280</v>
       </c>
       <c r="I39">
-        <v>1393</v>
+        <v>44</v>
       </c>
       <c r="J39">
-        <v>2756</v>
+        <v>106</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>29</v>
+      </c>
+      <c r="N39">
+        <v>46</v>
+      </c>
+      <c r="O39">
+        <v>48</v>
+      </c>
+      <c r="P39">
+        <v>118</v>
+      </c>
+      <c r="Q39">
+        <v>7</v>
+      </c>
+      <c r="R39">
         <v>10</v>
       </c>
-      <c r="M39">
-        <v>685</v>
-      </c>
-      <c r="N39">
-        <v>1133</v>
-      </c>
-      <c r="O39">
-        <v>1677</v>
-      </c>
-      <c r="P39">
-        <v>5148</v>
-      </c>
-      <c r="Q39">
-        <v>387</v>
-      </c>
-      <c r="R39">
-        <v>471</v>
-      </c>
       <c r="S39">
-        <v>1087</v>
+        <v>22</v>
       </c>
       <c r="T39">
-        <v>724</v>
+        <v>24</v>
       </c>
       <c r="U39">
-        <v>2430</v>
+        <v>45</v>
       </c>
       <c r="V39">
-        <v>3473</v>
+        <v>117</v>
       </c>
       <c r="W39">
-        <v>0.505</v>
-      </c>
-      <c r="X39">
+        <v>0.415</v>
+      </c>
+      <c r="Y39">
+        <v>0.63</v>
+      </c>
+      <c r="Z39">
+        <v>6.2</v>
+      </c>
+      <c r="AA39">
+        <v>2.6</v>
+      </c>
+      <c r="AB39">
+        <v>2.6</v>
+      </c>
+      <c r="AC39">
         <v>0.2</v>
-      </c>
-      <c r="Y39">
-        <v>0.605</v>
-      </c>
-      <c r="Z39">
-        <v>20.1</v>
-      </c>
-      <c r="AA39">
-        <v>4.1</v>
-      </c>
-      <c r="AB39">
-        <v>6.1</v>
-      </c>
-      <c r="AC39">
-        <v>0.5</v>
       </c>
       <c r="AD39" t="s">
         <v>152</v>
@@ -4417,76 +4399,76 @@
         <v>23</v>
       </c>
       <c r="F40">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>535</v>
+        <v>81</v>
       </c>
       <c r="H40">
-        <v>12579</v>
+        <v>1773</v>
       </c>
       <c r="I40">
-        <v>1574</v>
+        <v>195</v>
       </c>
       <c r="J40">
-        <v>3523</v>
+        <v>407</v>
       </c>
       <c r="K40">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>553</v>
+        <v>78</v>
       </c>
       <c r="N40">
-        <v>736</v>
+        <v>107</v>
       </c>
       <c r="O40">
-        <v>1623</v>
+        <v>299</v>
       </c>
       <c r="P40">
-        <v>3981</v>
+        <v>605</v>
       </c>
       <c r="Q40">
-        <v>696</v>
+        <v>99</v>
       </c>
       <c r="R40">
-        <v>300</v>
+        <v>61</v>
       </c>
       <c r="S40">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="T40">
-        <v>603</v>
+        <v>94</v>
       </c>
       <c r="U40">
-        <v>1501</v>
+        <v>246</v>
       </c>
       <c r="V40">
-        <v>3726</v>
+        <v>468</v>
       </c>
       <c r="W40">
-        <v>0.447</v>
+        <v>0.479</v>
       </c>
       <c r="X40">
-        <v>0.281</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>0.751</v>
+        <v>0.729</v>
       </c>
       <c r="Z40">
-        <v>23.5</v>
+        <v>21.9</v>
       </c>
       <c r="AA40">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="AB40">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AC40">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AD40" t="s">
         <v>152</v>
@@ -4509,31 +4491,31 @@
         <v>23</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H41">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J41">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K41">
         <v>3</v>
       </c>
       <c r="L41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O41">
         <v>3</v>
@@ -4542,43 +4524,40 @@
         <v>6</v>
       </c>
       <c r="Q41">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S41">
         <v>1</v>
       </c>
       <c r="T41">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U41">
         <v>6</v>
       </c>
       <c r="V41">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="W41">
-        <v>0.296</v>
+        <v>0.261</v>
       </c>
       <c r="X41">
-        <v>0.25</v>
-      </c>
-      <c r="Y41">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Z41">
-        <v>9.699999999999999</v>
+        <v>13.2</v>
       </c>
       <c r="AA41">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AB41">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="AD41" t="s">
         <v>152</v>
@@ -4601,76 +4580,76 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="H42">
-        <v>1662</v>
+        <v>259</v>
       </c>
       <c r="I42">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="J42">
-        <v>420</v>
+        <v>103</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
       <c r="L42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="N42">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="O42">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="P42">
-        <v>343</v>
+        <v>67</v>
       </c>
       <c r="Q42">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="R42">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="S42">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="T42">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="U42">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="V42">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="W42">
-        <v>0.433</v>
+        <v>0.427</v>
       </c>
       <c r="X42">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="Y42">
-        <v>0.585</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="Z42">
-        <v>8.9</v>
+        <v>11.3</v>
       </c>
       <c r="AA42">
-        <v>2.7</v>
+        <v>5.4</v>
       </c>
       <c r="AB42">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD42" t="s">
         <v>152</v>
@@ -4782,76 +4761,76 @@
         <v>24</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="H44">
-        <v>2058</v>
+        <v>86</v>
       </c>
       <c r="I44">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="J44">
-        <v>640</v>
+        <v>48</v>
       </c>
       <c r="K44">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="M44">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="N44">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="O44">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="P44">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c r="Q44">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="R44">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="S44">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="U44">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="V44">
-        <v>693</v>
+        <v>55</v>
       </c>
       <c r="W44">
-        <v>0.423</v>
+        <v>0.396</v>
       </c>
       <c r="X44">
-        <v>0.383</v>
+        <v>0.286</v>
       </c>
       <c r="Y44">
-        <v>0.633</v>
+        <v>0.577</v>
       </c>
       <c r="Z44">
-        <v>20</v>
+        <v>5.7</v>
       </c>
       <c r="AA44">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="AB44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD44" t="s">
         <v>152</v>
@@ -4874,76 +4853,76 @@
         <v>25</v>
       </c>
       <c r="F45">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>846</v>
+        <v>75</v>
       </c>
       <c r="H45">
-        <v>22212</v>
+        <v>1808</v>
       </c>
       <c r="I45">
-        <v>3633</v>
+        <v>313</v>
       </c>
       <c r="J45">
-        <v>8127</v>
+        <v>726</v>
       </c>
       <c r="K45">
-        <v>731</v>
+        <v>32</v>
       </c>
       <c r="L45">
-        <v>2184</v>
+        <v>118</v>
       </c>
       <c r="M45">
-        <v>1813</v>
+        <v>156</v>
       </c>
       <c r="N45">
-        <v>2487</v>
+        <v>210</v>
       </c>
       <c r="O45">
-        <v>1016</v>
+        <v>98</v>
       </c>
       <c r="P45">
-        <v>3555</v>
+        <v>297</v>
       </c>
       <c r="Q45">
-        <v>3119</v>
+        <v>252</v>
       </c>
       <c r="R45">
-        <v>817</v>
+        <v>81</v>
       </c>
       <c r="S45">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="T45">
-        <v>1544</v>
+        <v>167</v>
       </c>
       <c r="U45">
-        <v>1465</v>
+        <v>122</v>
       </c>
       <c r="V45">
-        <v>9810</v>
+        <v>814</v>
       </c>
       <c r="W45">
-        <v>0.447</v>
+        <v>0.431</v>
       </c>
       <c r="X45">
-        <v>0.335</v>
+        <v>0.271</v>
       </c>
       <c r="Y45">
-        <v>0.729</v>
+        <v>0.743</v>
       </c>
       <c r="Z45">
-        <v>26.3</v>
+        <v>24.1</v>
       </c>
       <c r="AA45">
-        <v>11.6</v>
+        <v>10.9</v>
       </c>
       <c r="AB45">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AC45">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AD45" t="s">
         <v>152</v>
@@ -4966,73 +4945,73 @@
         <v>23</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>774</v>
+        <v>71</v>
       </c>
       <c r="H46">
-        <v>17683</v>
+        <v>1762</v>
       </c>
       <c r="I46">
-        <v>2086</v>
+        <v>291</v>
       </c>
       <c r="J46">
-        <v>4677</v>
+        <v>573</v>
       </c>
       <c r="K46">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>477</v>
+        <v>5</v>
       </c>
       <c r="M46">
-        <v>791</v>
+        <v>99</v>
       </c>
       <c r="N46">
-        <v>1213</v>
+        <v>166</v>
       </c>
       <c r="O46">
-        <v>1508</v>
+        <v>220</v>
       </c>
       <c r="P46">
-        <v>3902</v>
+        <v>410</v>
       </c>
       <c r="Q46">
-        <v>1121</v>
+        <v>96</v>
       </c>
       <c r="R46">
-        <v>817</v>
+        <v>102</v>
       </c>
       <c r="S46">
-        <v>258</v>
+        <v>27</v>
       </c>
       <c r="T46">
-        <v>890</v>
+        <v>87</v>
       </c>
       <c r="U46">
-        <v>1675</v>
+        <v>177</v>
       </c>
       <c r="V46">
-        <v>5109</v>
+        <v>681</v>
       </c>
       <c r="W46">
-        <v>0.446</v>
+        <v>0.508</v>
       </c>
       <c r="X46">
-        <v>0.306</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>0.652</v>
+        <v>0.596</v>
       </c>
       <c r="Z46">
-        <v>22.8</v>
+        <v>24.8</v>
       </c>
       <c r="AA46">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AB46">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AC46">
         <v>1.4</v>
@@ -5150,76 +5129,76 @@
         <v>24</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H48">
-        <v>420</v>
+        <v>149</v>
       </c>
       <c r="I48">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J48">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="K48">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L48">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M48">
+        <v>8</v>
+      </c>
+      <c r="N48">
+        <v>10</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>11</v>
+      </c>
+      <c r="Q48">
+        <v>19</v>
+      </c>
+      <c r="R48">
+        <v>9</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>13</v>
+      </c>
+      <c r="U48">
         <v>16</v>
       </c>
-      <c r="N48">
-        <v>21</v>
-      </c>
-      <c r="O48">
-        <v>3</v>
-      </c>
-      <c r="P48">
-        <v>26</v>
-      </c>
-      <c r="Q48">
-        <v>65</v>
-      </c>
-      <c r="R48">
-        <v>24</v>
-      </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
-      <c r="T48">
-        <v>29</v>
-      </c>
-      <c r="U48">
-        <v>36</v>
-      </c>
       <c r="V48">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="W48">
-        <v>0.366</v>
+        <v>0.355</v>
       </c>
       <c r="X48">
-        <v>0.375</v>
+        <v>0.333</v>
       </c>
       <c r="Y48">
-        <v>0.762</v>
+        <v>0.8</v>
       </c>
       <c r="Z48">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AA48">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AB48">
         <v>0.5</v>
       </c>
       <c r="AC48">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AD48" t="s">
         <v>152</v>
@@ -5242,19 +5221,19 @@
         <v>24</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H49">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="I49">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J49">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5269,37 +5248,37 @@
         <v>51</v>
       </c>
       <c r="O49">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P49">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R49">
         <v>8</v>
       </c>
       <c r="S49">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T49">
         <v>29</v>
       </c>
       <c r="U49">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V49">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W49">
-        <v>0.441</v>
+        <v>0.455</v>
       </c>
       <c r="Y49">
         <v>0.608</v>
       </c>
       <c r="Z49">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="AA49">
         <v>2.1</v>
@@ -5331,76 +5310,76 @@
         <v>21</v>
       </c>
       <c r="F50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>611</v>
+        <v>79</v>
       </c>
       <c r="H50">
-        <v>22762</v>
+        <v>2896</v>
       </c>
       <c r="I50">
-        <v>4277</v>
+        <v>561</v>
       </c>
       <c r="J50">
-        <v>10222</v>
+        <v>1382</v>
       </c>
       <c r="K50">
-        <v>767</v>
+        <v>85</v>
       </c>
       <c r="L50">
-        <v>2226</v>
+        <v>299</v>
       </c>
       <c r="M50">
-        <v>2323</v>
+        <v>306</v>
       </c>
       <c r="N50">
-        <v>3032</v>
+        <v>438</v>
       </c>
       <c r="O50">
-        <v>697</v>
+        <v>107</v>
       </c>
       <c r="P50">
-        <v>3271</v>
+        <v>353</v>
       </c>
       <c r="Q50">
-        <v>2414</v>
+        <v>266</v>
       </c>
       <c r="R50">
-        <v>632</v>
+        <v>89</v>
       </c>
       <c r="S50">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="T50">
-        <v>1585</v>
+        <v>245</v>
       </c>
       <c r="U50">
-        <v>1533</v>
+        <v>205</v>
       </c>
       <c r="V50">
-        <v>11644</v>
+        <v>1513</v>
       </c>
       <c r="W50">
-        <v>0.418</v>
+        <v>0.406</v>
       </c>
       <c r="X50">
-        <v>0.345</v>
+        <v>0.284</v>
       </c>
       <c r="Y50">
-        <v>0.766</v>
+        <v>0.699</v>
       </c>
       <c r="Z50">
-        <v>37.3</v>
+        <v>36.7</v>
       </c>
       <c r="AA50">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB50">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="AC50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AD50" t="s">
         <v>152</v>
@@ -5423,25 +5402,25 @@
         <v>22</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H51">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I51">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J51">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M51">
         <v>12</v>
@@ -5453,13 +5432,13 @@
         <v>17</v>
       </c>
       <c r="P51">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S51">
         <v>13</v>
@@ -5471,19 +5450,19 @@
         <v>34</v>
       </c>
       <c r="V51">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="W51">
-        <v>0.312</v>
+        <v>0.318</v>
       </c>
       <c r="X51">
-        <v>0.222</v>
+        <v>0.208</v>
       </c>
       <c r="Y51">
         <v>0.444</v>
       </c>
       <c r="Z51">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AA51">
         <v>1.9</v>
@@ -5492,7 +5471,7 @@
         <v>0.9</v>
       </c>
       <c r="AC51">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD51" t="s">
         <v>152</v>
@@ -5515,76 +5494,76 @@
         <v>24</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>568</v>
+        <v>79</v>
       </c>
       <c r="H52">
-        <v>17282</v>
+        <v>2022</v>
       </c>
       <c r="I52">
-        <v>2391</v>
+        <v>284</v>
       </c>
       <c r="J52">
-        <v>5541</v>
+        <v>677</v>
       </c>
       <c r="K52">
-        <v>439</v>
+        <v>38</v>
       </c>
       <c r="L52">
-        <v>1251</v>
+        <v>122</v>
       </c>
       <c r="M52">
-        <v>1136</v>
+        <v>137</v>
       </c>
       <c r="N52">
-        <v>1391</v>
+        <v>176</v>
       </c>
       <c r="O52">
-        <v>772</v>
+        <v>134</v>
       </c>
       <c r="P52">
-        <v>2808</v>
+        <v>401</v>
       </c>
       <c r="Q52">
-        <v>1063</v>
+        <v>128</v>
       </c>
       <c r="R52">
-        <v>421</v>
+        <v>54</v>
       </c>
       <c r="S52">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c r="T52">
-        <v>726</v>
+        <v>89</v>
       </c>
       <c r="U52">
-        <v>1532</v>
+        <v>232</v>
       </c>
       <c r="V52">
-        <v>6357</v>
+        <v>743</v>
       </c>
       <c r="W52">
-        <v>0.432</v>
+        <v>0.419</v>
       </c>
       <c r="X52">
-        <v>0.351</v>
+        <v>0.311</v>
       </c>
       <c r="Y52">
-        <v>0.8169999999999999</v>
+        <v>0.778</v>
       </c>
       <c r="Z52">
-        <v>30.4</v>
+        <v>25.6</v>
       </c>
       <c r="AA52">
-        <v>11.2</v>
+        <v>9.4</v>
       </c>
       <c r="AB52">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AC52">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AD52" t="s">
         <v>152</v>
@@ -5696,76 +5675,73 @@
         <v>22</v>
       </c>
       <c r="F54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>307</v>
+        <v>54</v>
       </c>
       <c r="H54">
-        <v>6729</v>
+        <v>650</v>
       </c>
       <c r="I54">
-        <v>1265</v>
+        <v>128</v>
       </c>
       <c r="J54">
-        <v>2206</v>
+        <v>235</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>490</v>
+        <v>48</v>
       </c>
       <c r="N54">
-        <v>761</v>
+        <v>71</v>
       </c>
       <c r="O54">
-        <v>658</v>
+        <v>66</v>
       </c>
       <c r="P54">
-        <v>1957</v>
+        <v>192</v>
       </c>
       <c r="Q54">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="R54">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="S54">
-        <v>455</v>
+        <v>48</v>
       </c>
       <c r="T54">
-        <v>446</v>
+        <v>54</v>
       </c>
       <c r="U54">
-        <v>958</v>
+        <v>120</v>
       </c>
       <c r="V54">
-        <v>3020</v>
+        <v>304</v>
       </c>
       <c r="W54">
-        <v>0.573</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
+        <v>0.545</v>
       </c>
       <c r="Y54">
-        <v>0.644</v>
+        <v>0.676</v>
       </c>
       <c r="Z54">
-        <v>21.9</v>
+        <v>12</v>
       </c>
       <c r="AA54">
-        <v>9.800000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AB54">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="AC54">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AD54" t="s">
         <v>152</v>
@@ -5788,76 +5764,76 @@
         <v>22</v>
       </c>
       <c r="F55">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>914</v>
+        <v>37</v>
       </c>
       <c r="H55">
-        <v>20740</v>
+        <v>871</v>
       </c>
       <c r="I55">
-        <v>2005</v>
+        <v>98</v>
       </c>
       <c r="J55">
-        <v>3534</v>
+        <v>167</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M55">
-        <v>957</v>
+        <v>61</v>
       </c>
       <c r="N55">
-        <v>1837</v>
+        <v>103</v>
       </c>
       <c r="O55">
-        <v>1685</v>
+        <v>81</v>
       </c>
       <c r="P55">
-        <v>4437</v>
+        <v>212</v>
       </c>
       <c r="Q55">
-        <v>1441</v>
+        <v>36</v>
       </c>
       <c r="R55">
-        <v>855</v>
+        <v>36</v>
       </c>
       <c r="S55">
-        <v>1193</v>
+        <v>37</v>
       </c>
       <c r="T55">
-        <v>1056</v>
+        <v>31</v>
       </c>
       <c r="U55">
-        <v>2164</v>
+        <v>94</v>
       </c>
       <c r="V55">
-        <v>4970</v>
+        <v>257</v>
       </c>
       <c r="W55">
-        <v>0.5669999999999999</v>
+        <v>0.587</v>
       </c>
       <c r="X55">
-        <v>0.079</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>0.521</v>
+        <v>0.592</v>
       </c>
       <c r="Z55">
-        <v>22.7</v>
+        <v>23.5</v>
       </c>
       <c r="AA55">
-        <v>5.4</v>
+        <v>6.9</v>
       </c>
       <c r="AB55">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="AC55">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AD55" t="s">
         <v>152</v>
@@ -5880,19 +5856,19 @@
         <v>23</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H56">
-        <v>705</v>
+        <v>667</v>
       </c>
       <c r="I56">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J56">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5901,52 +5877,52 @@
         <v>1</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N56">
+        <v>44</v>
+      </c>
+      <c r="O56">
         <v>49</v>
       </c>
-      <c r="O56">
-        <v>51</v>
-      </c>
       <c r="P56">
+        <v>169</v>
+      </c>
+      <c r="Q56">
+        <v>24</v>
+      </c>
+      <c r="R56">
+        <v>17</v>
+      </c>
+      <c r="S56">
+        <v>25</v>
+      </c>
+      <c r="T56">
+        <v>34</v>
+      </c>
+      <c r="U56">
+        <v>131</v>
+      </c>
+      <c r="V56">
         <v>176</v>
       </c>
-      <c r="Q56">
-        <v>26</v>
-      </c>
-      <c r="R56">
-        <v>19</v>
-      </c>
-      <c r="S56">
-        <v>27</v>
-      </c>
-      <c r="T56">
-        <v>38</v>
-      </c>
-      <c r="U56">
-        <v>151</v>
-      </c>
-      <c r="V56">
-        <v>194</v>
-      </c>
       <c r="W56">
-        <v>0.556</v>
+        <v>0.539</v>
       </c>
       <c r="X56">
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>0.531</v>
+        <v>0.545</v>
       </c>
       <c r="Z56">
-        <v>10.4</v>
+        <v>12.1</v>
       </c>
       <c r="AA56">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AB56">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AC56">
         <v>0.4</v>
@@ -6064,76 +6040,76 @@
         <v>26</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="H58">
-        <v>7308</v>
+        <v>2303</v>
       </c>
       <c r="I58">
-        <v>1516</v>
+        <v>491</v>
       </c>
       <c r="J58">
-        <v>3052</v>
+        <v>942</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M58">
-        <v>701</v>
+        <v>226</v>
       </c>
       <c r="N58">
-        <v>954</v>
+        <v>301</v>
       </c>
       <c r="O58">
-        <v>497</v>
+        <v>191</v>
       </c>
       <c r="P58">
-        <v>1883</v>
+        <v>577</v>
       </c>
       <c r="Q58">
-        <v>356</v>
+        <v>114</v>
       </c>
       <c r="R58">
-        <v>201</v>
+        <v>70</v>
       </c>
       <c r="S58">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="T58">
-        <v>495</v>
+        <v>149</v>
       </c>
       <c r="U58">
-        <v>745</v>
+        <v>276</v>
       </c>
       <c r="V58">
-        <v>3733</v>
+        <v>1208</v>
       </c>
       <c r="W58">
-        <v>0.497</v>
+        <v>0.521</v>
       </c>
       <c r="X58">
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>0.735</v>
+        <v>0.751</v>
       </c>
       <c r="Z58">
-        <v>32.6</v>
+        <v>28.8</v>
       </c>
       <c r="AA58">
-        <v>16.7</v>
+        <v>15.1</v>
       </c>
       <c r="AB58">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC58">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AD58" t="s">
         <v>152</v>
@@ -6156,76 +6132,76 @@
         <v>22</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>563</v>
+        <v>79</v>
       </c>
       <c r="H59">
-        <v>17851</v>
+        <v>2415</v>
       </c>
       <c r="I59">
-        <v>3583</v>
+        <v>522</v>
       </c>
       <c r="J59">
-        <v>8085</v>
+        <v>1115</v>
       </c>
       <c r="K59">
-        <v>667</v>
+        <v>54</v>
       </c>
       <c r="L59">
-        <v>1896</v>
+        <v>150</v>
       </c>
       <c r="M59">
-        <v>1572</v>
+        <v>215</v>
       </c>
       <c r="N59">
-        <v>1935</v>
+        <v>265</v>
       </c>
       <c r="O59">
-        <v>676</v>
+        <v>118</v>
       </c>
       <c r="P59">
-        <v>2166</v>
+        <v>315</v>
       </c>
       <c r="Q59">
-        <v>1535</v>
+        <v>202</v>
       </c>
       <c r="R59">
-        <v>367</v>
+        <v>54</v>
       </c>
       <c r="S59">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="T59">
-        <v>1425</v>
+        <v>218</v>
       </c>
       <c r="U59">
-        <v>1327</v>
+        <v>194</v>
       </c>
       <c r="V59">
-        <v>9405</v>
+        <v>1313</v>
       </c>
       <c r="W59">
-        <v>0.443</v>
+        <v>0.468</v>
       </c>
       <c r="X59">
-        <v>0.352</v>
+        <v>0.36</v>
       </c>
       <c r="Y59">
-        <v>0.8120000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Z59">
-        <v>31.7</v>
+        <v>30.6</v>
       </c>
       <c r="AA59">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="AB59">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AC59">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD59" t="s">
         <v>152</v>
@@ -6248,76 +6224,76 @@
         <v>23</v>
       </c>
       <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>47</v>
+      </c>
+      <c r="H60">
+        <v>219</v>
+      </c>
+      <c r="I60">
+        <v>34</v>
+      </c>
+      <c r="J60">
+        <v>70</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>20</v>
+      </c>
+      <c r="N60">
+        <v>37</v>
+      </c>
+      <c r="O60">
+        <v>24</v>
+      </c>
+      <c r="P60">
+        <v>59</v>
+      </c>
+      <c r="Q60">
+        <v>9</v>
+      </c>
+      <c r="R60">
         <v>5</v>
       </c>
-      <c r="G60">
-        <v>186</v>
-      </c>
-      <c r="H60">
-        <v>1844</v>
-      </c>
-      <c r="I60">
-        <v>218</v>
-      </c>
-      <c r="J60">
-        <v>478</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>4</v>
-      </c>
-      <c r="M60">
-        <v>138</v>
-      </c>
-      <c r="N60">
-        <v>196</v>
-      </c>
-      <c r="O60">
-        <v>180</v>
-      </c>
-      <c r="P60">
-        <v>479</v>
-      </c>
-      <c r="Q60">
-        <v>60</v>
-      </c>
-      <c r="R60">
-        <v>54</v>
-      </c>
       <c r="S60">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="T60">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="U60">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="V60">
-        <v>574</v>
+        <v>88</v>
       </c>
       <c r="W60">
-        <v>0.456</v>
+        <v>0.486</v>
       </c>
       <c r="X60">
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>0.704</v>
+        <v>0.541</v>
       </c>
       <c r="Z60">
-        <v>9.9</v>
+        <v>4.7</v>
       </c>
       <c r="AA60">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="AB60">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="AC60">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD60" t="s">
         <v>152</v>
@@ -6340,76 +6316,76 @@
         <v>23</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>381</v>
+        <v>58</v>
       </c>
       <c r="H61">
-        <v>6935</v>
+        <v>673</v>
       </c>
       <c r="I61">
-        <v>1050</v>
+        <v>104</v>
       </c>
       <c r="J61">
-        <v>2662</v>
+        <v>285</v>
       </c>
       <c r="K61">
-        <v>400</v>
+        <v>23</v>
       </c>
       <c r="L61">
-        <v>1151</v>
+        <v>73</v>
       </c>
       <c r="M61">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="N61">
-        <v>574</v>
+        <v>67</v>
       </c>
       <c r="O61">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="P61">
-        <v>660</v>
+        <v>78</v>
       </c>
       <c r="Q61">
-        <v>715</v>
+        <v>68</v>
       </c>
       <c r="R61">
-        <v>205</v>
+        <v>30</v>
       </c>
       <c r="S61">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="T61">
-        <v>504</v>
+        <v>52</v>
       </c>
       <c r="U61">
-        <v>648</v>
+        <v>69</v>
       </c>
       <c r="V61">
-        <v>2882</v>
+        <v>276</v>
       </c>
       <c r="W61">
-        <v>0.394</v>
+        <v>0.365</v>
       </c>
       <c r="X61">
-        <v>0.348</v>
+        <v>0.315</v>
       </c>
       <c r="Y61">
-        <v>0.666</v>
+        <v>0.672</v>
       </c>
       <c r="Z61">
-        <v>18.2</v>
+        <v>11.6</v>
       </c>
       <c r="AA61">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="AB61">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AC61">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD61" t="s">
         <v>152</v>
@@ -6432,76 +6408,76 @@
         <v>22</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>866</v>
+        <v>79</v>
       </c>
       <c r="H62">
-        <v>21873</v>
+        <v>1406</v>
       </c>
       <c r="I62">
-        <v>3608</v>
+        <v>239</v>
       </c>
       <c r="J62">
-        <v>7994</v>
+        <v>545</v>
       </c>
       <c r="K62">
-        <v>690</v>
+        <v>35</v>
       </c>
       <c r="L62">
-        <v>1986</v>
+        <v>92</v>
       </c>
       <c r="M62">
-        <v>1562</v>
+        <v>127</v>
       </c>
       <c r="N62">
-        <v>2264</v>
+        <v>189</v>
       </c>
       <c r="O62">
-        <v>1275</v>
+        <v>90</v>
       </c>
       <c r="P62">
-        <v>3881</v>
+        <v>226</v>
       </c>
       <c r="Q62">
-        <v>1722</v>
+        <v>101</v>
       </c>
       <c r="R62">
-        <v>868</v>
+        <v>63</v>
       </c>
       <c r="S62">
-        <v>451</v>
+        <v>48</v>
       </c>
       <c r="T62">
-        <v>1631</v>
+        <v>131</v>
       </c>
       <c r="U62">
-        <v>2678</v>
+        <v>195</v>
       </c>
       <c r="V62">
-        <v>9468</v>
+        <v>640</v>
       </c>
       <c r="W62">
-        <v>0.451</v>
+        <v>0.439</v>
       </c>
       <c r="X62">
-        <v>0.347</v>
+        <v>0.38</v>
       </c>
       <c r="Y62">
-        <v>0.6899999999999999</v>
+        <v>0.672</v>
       </c>
       <c r="Z62">
-        <v>25.3</v>
+        <v>17.8</v>
       </c>
       <c r="AA62">
-        <v>10.9</v>
+        <v>8.1</v>
       </c>
       <c r="AB62">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="AC62">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AD62" t="s">
         <v>152</v>
@@ -6524,76 +6500,76 @@
         <v>23</v>
       </c>
       <c r="F63">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>841</v>
+        <v>67</v>
       </c>
       <c r="H63">
-        <v>19805</v>
+        <v>1121</v>
       </c>
       <c r="I63">
-        <v>2274</v>
+        <v>135</v>
       </c>
       <c r="J63">
-        <v>5272</v>
+        <v>279</v>
       </c>
       <c r="K63">
-        <v>685</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>1856</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>1430</v>
+        <v>62</v>
       </c>
       <c r="N63">
-        <v>1906</v>
+        <v>101</v>
       </c>
       <c r="O63">
-        <v>752</v>
+        <v>61</v>
       </c>
       <c r="P63">
-        <v>2914</v>
+        <v>181</v>
       </c>
       <c r="Q63">
-        <v>1085</v>
+        <v>54</v>
       </c>
       <c r="R63">
-        <v>874</v>
+        <v>68</v>
       </c>
       <c r="S63">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="T63">
-        <v>835</v>
+        <v>55</v>
       </c>
       <c r="U63">
-        <v>1984</v>
+        <v>138</v>
       </c>
       <c r="V63">
-        <v>6663</v>
+        <v>334</v>
       </c>
       <c r="W63">
-        <v>0.431</v>
+        <v>0.484</v>
       </c>
       <c r="X63">
-        <v>0.369</v>
+        <v>0.091</v>
       </c>
       <c r="Y63">
-        <v>0.75</v>
+        <v>0.614</v>
       </c>
       <c r="Z63">
-        <v>23.5</v>
+        <v>16.7</v>
       </c>
       <c r="AA63">
-        <v>7.9</v>
+        <v>5</v>
       </c>
       <c r="AB63">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AC63">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD63" t="s">
         <v>152</v>
@@ -6708,73 +6684,67 @@
         <v>23</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>11</v>
+      </c>
+      <c r="H65">
+        <v>32</v>
+      </c>
+      <c r="I65">
         <v>4</v>
       </c>
-      <c r="G65">
-        <v>53</v>
-      </c>
-      <c r="H65">
-        <v>416</v>
-      </c>
-      <c r="I65">
-        <v>39</v>
-      </c>
       <c r="J65">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="Q65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
         <v>6</v>
       </c>
-      <c r="S65">
-        <v>12</v>
-      </c>
-      <c r="T65">
-        <v>19</v>
-      </c>
-      <c r="U65">
-        <v>69</v>
-      </c>
       <c r="V65">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="W65">
-        <v>0.429</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0.556</v>
+        <v>0.444</v>
       </c>
       <c r="Z65">
-        <v>7.8</v>
+        <v>2.9</v>
       </c>
       <c r="AA65">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="AB65">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AC65">
         <v>0.1</v>
@@ -6800,76 +6770,76 @@
         <v>22</v>
       </c>
       <c r="F66">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>880</v>
+        <v>81</v>
       </c>
       <c r="H66">
-        <v>28969</v>
+        <v>2700</v>
       </c>
       <c r="I66">
-        <v>4636</v>
+        <v>413</v>
       </c>
       <c r="J66">
-        <v>11458</v>
+        <v>1049</v>
       </c>
       <c r="K66">
-        <v>1528</v>
+        <v>123</v>
       </c>
       <c r="L66">
-        <v>4278</v>
+        <v>364</v>
       </c>
       <c r="M66">
-        <v>1858</v>
+        <v>150</v>
       </c>
       <c r="N66">
-        <v>2341</v>
+        <v>192</v>
       </c>
       <c r="O66">
-        <v>375</v>
+        <v>47</v>
       </c>
       <c r="P66">
-        <v>2545</v>
+        <v>238</v>
       </c>
       <c r="Q66">
-        <v>5777</v>
+        <v>466</v>
       </c>
       <c r="R66">
-        <v>726</v>
+        <v>85</v>
       </c>
       <c r="S66">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="T66">
-        <v>1850</v>
+        <v>145</v>
       </c>
       <c r="U66">
-        <v>1380</v>
+        <v>154</v>
       </c>
       <c r="V66">
-        <v>12658</v>
+        <v>1099</v>
       </c>
       <c r="W66">
-        <v>0.405</v>
+        <v>0.394</v>
       </c>
       <c r="X66">
-        <v>0.357</v>
+        <v>0.338</v>
       </c>
       <c r="Y66">
-        <v>0.794</v>
+        <v>0.781</v>
       </c>
       <c r="Z66">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="AA66">
-        <v>14.4</v>
+        <v>13.6</v>
       </c>
       <c r="AB66">
         <v>2.9</v>
       </c>
       <c r="AC66">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="AD66" t="s">
         <v>152</v>
@@ -6892,76 +6862,76 @@
         <v>23</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>335</v>
+        <v>48</v>
       </c>
       <c r="H67">
-        <v>4602</v>
+        <v>386</v>
       </c>
       <c r="I67">
-        <v>572</v>
+        <v>60</v>
       </c>
       <c r="J67">
-        <v>1296</v>
+        <v>115</v>
       </c>
       <c r="K67">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="L67">
-        <v>518</v>
+        <v>28</v>
       </c>
       <c r="M67">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="N67">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="O67">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="P67">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="Q67">
-        <v>569</v>
+        <v>71</v>
       </c>
       <c r="R67">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="S67">
+        <v>3</v>
+      </c>
+      <c r="T67">
         <v>30</v>
       </c>
-      <c r="T67">
-        <v>291</v>
-      </c>
       <c r="U67">
-        <v>439</v>
+        <v>41</v>
       </c>
       <c r="V67">
-        <v>1547</v>
+        <v>162</v>
       </c>
       <c r="W67">
-        <v>0.441</v>
+        <v>0.522</v>
       </c>
       <c r="X67">
-        <v>0.361</v>
+        <v>0.5</v>
       </c>
       <c r="Y67">
-        <v>0.8090000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="Z67">
-        <v>13.7</v>
+        <v>8</v>
       </c>
       <c r="AA67">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="AB67">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AC67">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AD67" t="s">
         <v>152</v>
@@ -6984,76 +6954,76 @@
         <v>20</v>
       </c>
       <c r="F68">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>831</v>
+        <v>76</v>
       </c>
       <c r="H68">
-        <v>30847</v>
+        <v>2438</v>
       </c>
       <c r="I68">
-        <v>7192</v>
+        <v>572</v>
       </c>
       <c r="J68">
-        <v>15024</v>
+        <v>1037</v>
       </c>
       <c r="K68">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>883</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>2534</v>
+        <v>189</v>
       </c>
       <c r="N68">
-        <v>3906</v>
+        <v>355</v>
       </c>
       <c r="O68">
-        <v>2271</v>
+        <v>305</v>
       </c>
       <c r="P68">
-        <v>8124</v>
+        <v>694</v>
       </c>
       <c r="Q68">
-        <v>3526</v>
+        <v>272</v>
       </c>
       <c r="R68">
-        <v>1197</v>
+        <v>93</v>
       </c>
       <c r="S68">
-        <v>1200</v>
+        <v>164</v>
       </c>
       <c r="T68">
-        <v>2313</v>
+        <v>206</v>
       </c>
       <c r="U68">
-        <v>2700</v>
+        <v>247</v>
       </c>
       <c r="V68">
-        <v>17182</v>
+        <v>1333</v>
       </c>
       <c r="W68">
-        <v>0.479</v>
+        <v>0.552</v>
       </c>
       <c r="X68">
-        <v>0.299</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>0.649</v>
+        <v>0.532</v>
       </c>
       <c r="Z68">
-        <v>37.1</v>
+        <v>32.1</v>
       </c>
       <c r="AA68">
-        <v>20.7</v>
+        <v>17.5</v>
       </c>
       <c r="AB68">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AC68">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="AD68" t="s">
         <v>152</v>
@@ -7165,76 +7135,76 @@
         <v>23</v>
       </c>
       <c r="F70">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>949</v>
+        <v>60</v>
       </c>
       <c r="H70">
-        <v>30272</v>
+        <v>542</v>
       </c>
       <c r="I70">
-        <v>4248</v>
+        <v>64</v>
       </c>
       <c r="J70">
-        <v>10023</v>
+        <v>174</v>
       </c>
       <c r="K70">
-        <v>1123</v>
+        <v>11</v>
       </c>
       <c r="L70">
-        <v>3051</v>
+        <v>47</v>
       </c>
       <c r="M70">
-        <v>2223</v>
+        <v>44</v>
       </c>
       <c r="N70">
-        <v>2827</v>
+        <v>53</v>
       </c>
       <c r="O70">
-        <v>526</v>
+        <v>10</v>
       </c>
       <c r="P70">
-        <v>2405</v>
+        <v>44</v>
       </c>
       <c r="Q70">
-        <v>4159</v>
+        <v>123</v>
       </c>
       <c r="R70">
-        <v>1280</v>
+        <v>38</v>
       </c>
       <c r="S70">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="T70">
-        <v>1808</v>
+        <v>52</v>
       </c>
       <c r="U70">
-        <v>2310</v>
+        <v>47</v>
       </c>
       <c r="V70">
-        <v>11842</v>
+        <v>183</v>
       </c>
       <c r="W70">
-        <v>0.424</v>
+        <v>0.368</v>
       </c>
       <c r="X70">
-        <v>0.368</v>
+        <v>0.234</v>
       </c>
       <c r="Y70">
-        <v>0.786</v>
+        <v>0.83</v>
       </c>
       <c r="Z70">
-        <v>31.9</v>
+        <v>9</v>
       </c>
       <c r="AA70">
-        <v>12.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB70">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="AC70">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="AD70" t="s">
         <v>152</v>
@@ -7257,76 +7227,76 @@
         <v>22</v>
       </c>
       <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>40</v>
+      </c>
+      <c r="H71">
+        <v>339</v>
+      </c>
+      <c r="I71">
+        <v>25</v>
+      </c>
+      <c r="J71">
+        <v>82</v>
+      </c>
+      <c r="K71">
+        <v>10</v>
+      </c>
+      <c r="L71">
+        <v>30</v>
+      </c>
+      <c r="M71">
+        <v>12</v>
+      </c>
+      <c r="N71">
+        <v>15</v>
+      </c>
+      <c r="O71">
+        <v>5</v>
+      </c>
+      <c r="P71">
+        <v>29</v>
+      </c>
+      <c r="Q71">
+        <v>53</v>
+      </c>
+      <c r="R71">
         <v>11</v>
       </c>
-      <c r="G71">
-        <v>579</v>
-      </c>
-      <c r="H71">
-        <v>10052</v>
-      </c>
-      <c r="I71">
-        <v>1227</v>
-      </c>
-      <c r="J71">
-        <v>3110</v>
-      </c>
-      <c r="K71">
-        <v>552</v>
-      </c>
-      <c r="L71">
-        <v>1528</v>
-      </c>
-      <c r="M71">
-        <v>732</v>
-      </c>
-      <c r="N71">
-        <v>837</v>
-      </c>
-      <c r="O71">
-        <v>97</v>
-      </c>
-      <c r="P71">
-        <v>815</v>
-      </c>
-      <c r="Q71">
-        <v>1613</v>
-      </c>
-      <c r="R71">
-        <v>351</v>
-      </c>
       <c r="S71">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="T71">
-        <v>619</v>
+        <v>37</v>
       </c>
       <c r="U71">
-        <v>984</v>
+        <v>53</v>
       </c>
       <c r="V71">
-        <v>3738</v>
+        <v>72</v>
       </c>
       <c r="W71">
-        <v>0.395</v>
+        <v>0.305</v>
       </c>
       <c r="X71">
-        <v>0.361</v>
+        <v>0.333</v>
       </c>
       <c r="Y71">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="Z71">
-        <v>17.4</v>
+        <v>8.5</v>
       </c>
       <c r="AA71">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="AB71">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AC71">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD71" t="s">
         <v>152</v>
@@ -7349,76 +7319,73 @@
         <v>22</v>
       </c>
       <c r="F72">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>715</v>
+        <v>6</v>
       </c>
       <c r="H72">
-        <v>12000</v>
+        <v>12</v>
       </c>
       <c r="I72">
-        <v>1572</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>3190</v>
+        <v>8</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>1318</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>1016</v>
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>2790</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>485</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="T72">
-        <v>663</v>
+        <v>1</v>
       </c>
       <c r="U72">
-        <v>1750</v>
+        <v>4</v>
       </c>
       <c r="V72">
-        <v>4120</v>
+        <v>4</v>
       </c>
       <c r="W72">
-        <v>0.493</v>
-      </c>
-      <c r="X72">
-        <v>0.063</v>
+        <v>0.25</v>
       </c>
       <c r="Y72">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="Z72">
-        <v>16.8</v>
+        <v>2</v>
       </c>
       <c r="AA72">
-        <v>5.8</v>
+        <v>0.7</v>
       </c>
       <c r="AB72">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="AC72">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD72" t="s">
         <v>152</v>
